--- a/SOO_results/DP1000_room_SwiftVoce_NDBR50_curve2/initial/99/FD_Curve.xlsx
+++ b/SOO_results/DP1000_room_SwiftVoce_NDBR50_curve2/initial/99/FD_Curve.xlsx
@@ -532,1033 +532,1033 @@
         <v>0.216989</v>
       </c>
       <c r="B9" t="n">
-        <v>7.67307</v>
+        <v>7.85867</v>
       </c>
       <c r="C9" t="n">
-        <v>7673.07</v>
+        <v>7858.67</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.247954</v>
+        <v>0.247924</v>
       </c>
       <c r="B10" t="n">
-        <v>8.099959999999999</v>
+        <v>8.805540000000001</v>
       </c>
       <c r="C10" t="n">
-        <v>8099.96</v>
+        <v>8805.540000000001</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.278879</v>
+        <v>0.278849</v>
       </c>
       <c r="B11" t="n">
-        <v>8.53251</v>
+        <v>9.544309999999999</v>
       </c>
       <c r="C11" t="n">
-        <v>8532.51</v>
+        <v>9544.309999999999</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.309804</v>
+        <v>0.309774</v>
       </c>
       <c r="B12" t="n">
-        <v>8.80846</v>
+        <v>10.2257</v>
       </c>
       <c r="C12" t="n">
-        <v>8808.459999999999</v>
+        <v>10225.7</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.340729</v>
+        <v>0.340699</v>
       </c>
       <c r="B13" t="n">
-        <v>9.07874</v>
+        <v>10.8661</v>
       </c>
       <c r="C13" t="n">
-        <v>9078.74</v>
+        <v>10866.1</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.371655</v>
+        <v>0.371624</v>
       </c>
       <c r="B14" t="n">
-        <v>9.304690000000001</v>
+        <v>11.1339</v>
       </c>
       <c r="C14" t="n">
-        <v>9304.690000000001</v>
+        <v>11133.9</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.40258</v>
+        <v>0.402549</v>
       </c>
       <c r="B15" t="n">
-        <v>9.526860000000001</v>
+        <v>11.246</v>
       </c>
       <c r="C15" t="n">
-        <v>9526.860000000001</v>
+        <v>11246</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.433505</v>
+        <v>0.433474</v>
       </c>
       <c r="B16" t="n">
-        <v>9.70966</v>
+        <v>11.2594</v>
       </c>
       <c r="C16" t="n">
-        <v>9709.66</v>
+        <v>11259.4</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.46443</v>
+        <v>0.464399</v>
       </c>
       <c r="B17" t="n">
-        <v>9.894410000000001</v>
+        <v>11.2585</v>
       </c>
       <c r="C17" t="n">
-        <v>9894.41</v>
+        <v>11258.5</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.495355</v>
+        <v>0.495324</v>
       </c>
       <c r="B18" t="n">
-        <v>10.0619</v>
+        <v>11.2534</v>
       </c>
       <c r="C18" t="n">
-        <v>10061.9</v>
+        <v>11253.4</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.52628</v>
+        <v>0.526249</v>
       </c>
       <c r="B19" t="n">
-        <v>10.2121</v>
+        <v>11.2432</v>
       </c>
       <c r="C19" t="n">
-        <v>10212.1</v>
+        <v>11243.2</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.557205</v>
+        <v>0.5571739999999999</v>
       </c>
       <c r="B20" t="n">
-        <v>10.3476</v>
+        <v>11.2312</v>
       </c>
       <c r="C20" t="n">
-        <v>10347.6</v>
+        <v>11231.2</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.58813</v>
+        <v>0.588099</v>
       </c>
       <c r="B21" t="n">
-        <v>10.4686</v>
+        <v>11.2149</v>
       </c>
       <c r="C21" t="n">
-        <v>10468.6</v>
+        <v>11214.9</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0.6191719999999999</v>
+        <v>0.6191410000000001</v>
       </c>
       <c r="B22" t="n">
-        <v>10.5968</v>
+        <v>11.1977</v>
       </c>
       <c r="C22" t="n">
-        <v>10596.8</v>
+        <v>11197.7</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0.650344</v>
+        <v>0.6503139999999999</v>
       </c>
       <c r="B23" t="n">
-        <v>10.6923</v>
+        <v>11.1765</v>
       </c>
       <c r="C23" t="n">
-        <v>10692.3</v>
+        <v>11176.5</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0.681517</v>
+        <v>0.681486</v>
       </c>
       <c r="B24" t="n">
-        <v>10.7884</v>
+        <v>11.1546</v>
       </c>
       <c r="C24" t="n">
-        <v>10788.4</v>
+        <v>11154.6</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.712694</v>
+        <v>0.712663</v>
       </c>
       <c r="B25" t="n">
-        <v>10.8687</v>
+        <v>11.1299</v>
       </c>
       <c r="C25" t="n">
-        <v>10868.7</v>
+        <v>11129.9</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0.743866</v>
+        <v>0.7438360000000001</v>
       </c>
       <c r="B26" t="n">
-        <v>10.9444</v>
+        <v>11.1031</v>
       </c>
       <c r="C26" t="n">
-        <v>10944.4</v>
+        <v>11103.1</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0.775043</v>
+        <v>0.775013</v>
       </c>
       <c r="B27" t="n">
-        <v>11.0054</v>
+        <v>11.075</v>
       </c>
       <c r="C27" t="n">
-        <v>11005.4</v>
+        <v>11075</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0.806216</v>
+        <v>0.806185</v>
       </c>
       <c r="B28" t="n">
-        <v>11.0596</v>
+        <v>11.046</v>
       </c>
       <c r="C28" t="n">
-        <v>11059.6</v>
+        <v>11046</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0.837389</v>
+        <v>0.837358</v>
       </c>
       <c r="B29" t="n">
-        <v>11.1074</v>
+        <v>11.015</v>
       </c>
       <c r="C29" t="n">
-        <v>11107.4</v>
+        <v>11015</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0.8685659999999999</v>
+        <v>0.8685349999999999</v>
       </c>
       <c r="B30" t="n">
-        <v>11.144</v>
+        <v>10.9817</v>
       </c>
       <c r="C30" t="n">
-        <v>11144</v>
+        <v>10981.7</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0.899738</v>
+        <v>0.899708</v>
       </c>
       <c r="B31" t="n">
-        <v>11.1704</v>
+        <v>10.9465</v>
       </c>
       <c r="C31" t="n">
-        <v>11170.4</v>
+        <v>10946.5</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0.930911</v>
+        <v>0.93088</v>
       </c>
       <c r="B32" t="n">
-        <v>11.188</v>
+        <v>10.9089</v>
       </c>
       <c r="C32" t="n">
-        <v>11188</v>
+        <v>10908.9</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0.9620880000000001</v>
+        <v>0.9620570000000001</v>
       </c>
       <c r="B33" t="n">
-        <v>11.1959</v>
+        <v>10.8689</v>
       </c>
       <c r="C33" t="n">
-        <v>11195.9</v>
+        <v>10868.9</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>0.99326</v>
+        <v>0.9932299999999999</v>
       </c>
       <c r="B34" t="n">
-        <v>11.1945</v>
+        <v>10.8269</v>
       </c>
       <c r="C34" t="n">
-        <v>11194.5</v>
+        <v>10826.9</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>1.02429</v>
+        <v>1.02454</v>
       </c>
       <c r="B35" t="n">
-        <v>11.186</v>
+        <v>10.7827</v>
       </c>
       <c r="C35" t="n">
-        <v>11186</v>
+        <v>10782.7</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>1.05526</v>
+        <v>1.05593</v>
       </c>
       <c r="B36" t="n">
-        <v>11.1694</v>
+        <v>10.7359</v>
       </c>
       <c r="C36" t="n">
-        <v>11169.4</v>
+        <v>10735.9</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>1.08622</v>
+        <v>1.0873</v>
       </c>
       <c r="B37" t="n">
-        <v>11.1472</v>
+        <v>10.6872</v>
       </c>
       <c r="C37" t="n">
-        <v>11147.2</v>
+        <v>10687.2</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>1.11719</v>
+        <v>1.11869</v>
       </c>
       <c r="B38" t="n">
-        <v>11.1198</v>
+        <v>10.6361</v>
       </c>
       <c r="C38" t="n">
-        <v>11119.8</v>
+        <v>10636.1</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>1.14816</v>
+        <v>1.15007</v>
       </c>
       <c r="B39" t="n">
-        <v>11.0883</v>
+        <v>10.5824</v>
       </c>
       <c r="C39" t="n">
-        <v>11088.3</v>
+        <v>10582.4</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>1.17913</v>
+        <v>1.18145</v>
       </c>
       <c r="B40" t="n">
-        <v>11.0539</v>
+        <v>10.5264</v>
       </c>
       <c r="C40" t="n">
-        <v>11053.9</v>
+        <v>10526.4</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>1.2101</v>
+        <v>1.21283</v>
       </c>
       <c r="B41" t="n">
-        <v>11.0168</v>
+        <v>10.4682</v>
       </c>
       <c r="C41" t="n">
-        <v>11016.8</v>
+        <v>10468.2</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>1.24106</v>
+        <v>1.24421</v>
       </c>
       <c r="B42" t="n">
-        <v>10.9773</v>
+        <v>10.4071</v>
       </c>
       <c r="C42" t="n">
-        <v>10977.3</v>
+        <v>10407.1</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>1.27203</v>
+        <v>1.27544</v>
       </c>
       <c r="B43" t="n">
-        <v>10.9354</v>
+        <v>10.3436</v>
       </c>
       <c r="C43" t="n">
-        <v>10935.4</v>
+        <v>10343.6</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>1.303</v>
+        <v>1.30642</v>
       </c>
       <c r="B44" t="n">
-        <v>10.8915</v>
+        <v>10.2775</v>
       </c>
       <c r="C44" t="n">
-        <v>10891.5</v>
+        <v>10277.5</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>1.33397</v>
+        <v>1.33734</v>
       </c>
       <c r="B45" t="n">
-        <v>10.8459</v>
+        <v>10.2088</v>
       </c>
       <c r="C45" t="n">
-        <v>10845.9</v>
+        <v>10208.8</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>1.36493</v>
+        <v>1.36847</v>
       </c>
       <c r="B46" t="n">
-        <v>10.7983</v>
+        <v>10.1361</v>
       </c>
       <c r="C46" t="n">
-        <v>10798.3</v>
+        <v>10136.1</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>1.3959</v>
+        <v>1.39928</v>
       </c>
       <c r="B47" t="n">
-        <v>10.7483</v>
+        <v>10.0606</v>
       </c>
       <c r="C47" t="n">
-        <v>10748.3</v>
+        <v>10060.6</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>1.42687</v>
+        <v>1.43046</v>
       </c>
       <c r="B48" t="n">
-        <v>10.6957</v>
+        <v>9.980639999999999</v>
       </c>
       <c r="C48" t="n">
-        <v>10695.7</v>
+        <v>9980.639999999999</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>1.45784</v>
+        <v>1.46141</v>
       </c>
       <c r="B49" t="n">
-        <v>10.6415</v>
+        <v>9.89701</v>
       </c>
       <c r="C49" t="n">
-        <v>10641.5</v>
+        <v>9897.01</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>1.4888</v>
+        <v>1.49237</v>
       </c>
       <c r="B50" t="n">
-        <v>10.5843</v>
+        <v>9.80841</v>
       </c>
       <c r="C50" t="n">
-        <v>10584.3</v>
+        <v>9808.41</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>1.51977</v>
+        <v>1.52347</v>
       </c>
       <c r="B51" t="n">
-        <v>10.5237</v>
+        <v>9.714790000000001</v>
       </c>
       <c r="C51" t="n">
-        <v>10523.7</v>
+        <v>9714.790000000001</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>1.55074</v>
+        <v>1.5543</v>
       </c>
       <c r="B52" t="n">
-        <v>10.4597</v>
+        <v>9.616719999999999</v>
       </c>
       <c r="C52" t="n">
-        <v>10459.7</v>
+        <v>9616.719999999999</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>1.58171</v>
+        <v>1.58545</v>
       </c>
       <c r="B53" t="n">
-        <v>10.3913</v>
+        <v>9.512770000000002</v>
       </c>
       <c r="C53" t="n">
-        <v>10391.3</v>
+        <v>9512.77</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>1.61267</v>
+        <v>1.6164</v>
       </c>
       <c r="B54" t="n">
-        <v>10.3193</v>
+        <v>9.403620000000002</v>
       </c>
       <c r="C54" t="n">
-        <v>10319.3</v>
+        <v>9403.620000000001</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>1.64364</v>
+        <v>1.64739</v>
       </c>
       <c r="B55" t="n">
-        <v>10.2428</v>
+        <v>9.289620000000001</v>
       </c>
       <c r="C55" t="n">
-        <v>10242.8</v>
+        <v>9289.620000000001</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>1.67461</v>
+        <v>1.67845</v>
       </c>
       <c r="B56" t="n">
-        <v>10.1626</v>
+        <v>9.16919</v>
       </c>
       <c r="C56" t="n">
-        <v>10162.6</v>
+        <v>9169.190000000001</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>1.70548</v>
+        <v>1.70929</v>
       </c>
       <c r="B57" t="n">
-        <v>10.0772</v>
+        <v>9.04494</v>
       </c>
       <c r="C57" t="n">
-        <v>10077.2</v>
+        <v>9044.940000000001</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>1.73662</v>
+        <v>1.74051</v>
       </c>
       <c r="B58" t="n">
-        <v>9.986190000000001</v>
+        <v>8.913969999999999</v>
       </c>
       <c r="C58" t="n">
-        <v>9986.190000000001</v>
+        <v>8913.969999999999</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>1.76749</v>
+        <v>1.77123</v>
       </c>
       <c r="B59" t="n">
-        <v>9.890799999999999</v>
+        <v>8.78093</v>
       </c>
       <c r="C59" t="n">
-        <v>9890.799999999999</v>
+        <v>8780.93</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>1.79859</v>
+        <v>1.80248</v>
       </c>
       <c r="B60" t="n">
-        <v>9.78966</v>
+        <v>8.641219999999999</v>
       </c>
       <c r="C60" t="n">
-        <v>9789.66</v>
+        <v>8641.219999999999</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>1.82958</v>
+        <v>1.83323</v>
       </c>
       <c r="B61" t="n">
-        <v>9.683620000000001</v>
+        <v>8.50014</v>
       </c>
       <c r="C61" t="n">
-        <v>9683.620000000001</v>
+        <v>8500.139999999999</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>1.86056</v>
+        <v>1.8645</v>
       </c>
       <c r="B62" t="n">
-        <v>9.572240000000001</v>
+        <v>8.353400000000001</v>
       </c>
       <c r="C62" t="n">
-        <v>9572.24</v>
+        <v>8353.4</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>1.89158</v>
+        <v>1.89533</v>
       </c>
       <c r="B63" t="n">
-        <v>9.455399999999999</v>
+        <v>8.206250000000001</v>
       </c>
       <c r="C63" t="n">
-        <v>9455.4</v>
+        <v>8206.25</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>1.92253</v>
+        <v>1.92649</v>
       </c>
       <c r="B64" t="n">
-        <v>9.33372</v>
+        <v>8.05522</v>
       </c>
       <c r="C64" t="n">
-        <v>9333.719999999999</v>
+        <v>8055.22</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>1.95362</v>
+        <v>1.9575</v>
       </c>
       <c r="B65" t="n">
-        <v>9.20651</v>
+        <v>7.90305</v>
       </c>
       <c r="C65" t="n">
-        <v>9206.51</v>
+        <v>7903.05</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>1.98443</v>
+        <v>1.98831</v>
       </c>
       <c r="B66" t="n">
-        <v>9.075790000000001</v>
+        <v>7.75183</v>
       </c>
       <c r="C66" t="n">
-        <v>9075.790000000001</v>
+        <v>7751.83</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>2.01562</v>
+        <v>2.01961</v>
       </c>
       <c r="B67" t="n">
-        <v>8.938889999999999</v>
+        <v>7.59752</v>
       </c>
       <c r="C67" t="n">
-        <v>8938.889999999999</v>
+        <v>7597.52</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>2.04633</v>
+        <v>2.05026</v>
       </c>
       <c r="B68" t="n">
-        <v>8.799850000000001</v>
+        <v>7.44696</v>
       </c>
       <c r="C68" t="n">
-        <v>8799.85</v>
+        <v>7446.96</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>2.07754</v>
+        <v>2.08153</v>
       </c>
       <c r="B69" t="n">
-        <v>8.654920000000001</v>
+        <v>7.292899999999999</v>
       </c>
       <c r="C69" t="n">
-        <v>8654.92</v>
+        <v>7292.9</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>2.10841</v>
+        <v>2.11276</v>
       </c>
       <c r="B70" t="n">
-        <v>8.509440000000001</v>
+        <v>7.14161</v>
       </c>
       <c r="C70" t="n">
-        <v>8509.440000000001</v>
+        <v>7141.61</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>2.13957</v>
+        <v>2.14293</v>
       </c>
       <c r="B71" t="n">
-        <v>8.359</v>
+        <v>6.993729999999999</v>
       </c>
       <c r="C71" t="n">
-        <v>8359</v>
+        <v>6993.73</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>2.17026</v>
+        <v>2.17493</v>
       </c>
       <c r="B72" t="n">
-        <v>8.20932</v>
+        <v>6.842810000000001</v>
       </c>
       <c r="C72" t="n">
-        <v>8209.32</v>
+        <v>6842.81</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>2.20168</v>
+        <v>2.20552</v>
       </c>
       <c r="B73" t="n">
-        <v>8.05471</v>
+        <v>6.69852</v>
       </c>
       <c r="C73" t="n">
-        <v>8054.71</v>
+        <v>6698.52</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>2.23225</v>
+        <v>2.23592</v>
       </c>
       <c r="B74" t="n">
-        <v>7.9023</v>
+        <v>6.561350000000001</v>
       </c>
       <c r="C74" t="n">
-        <v>7902.3</v>
+        <v>6561.35</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>2.26377</v>
+        <v>2.26783</v>
       </c>
       <c r="B75" t="n">
-        <v>7.74707</v>
+        <v>6.42243</v>
       </c>
       <c r="C75" t="n">
-        <v>7747.07</v>
+        <v>6422.43</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>2.29435</v>
+        <v>2.29855</v>
       </c>
       <c r="B76" t="n">
-        <v>7.5957</v>
+        <v>6.29072</v>
       </c>
       <c r="C76" t="n">
-        <v>7595.7</v>
+        <v>6290.72</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>2.32577</v>
+        <v>2.32927</v>
       </c>
       <c r="B77" t="n">
-        <v>7.445060000000001</v>
+        <v>6.16686</v>
       </c>
       <c r="C77" t="n">
-        <v>7445.06</v>
+        <v>6166.86</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>2.35649</v>
+        <v>2.36054</v>
       </c>
       <c r="B78" t="n">
-        <v>7.2971</v>
+        <v>6.044720000000001</v>
       </c>
       <c r="C78" t="n">
-        <v>7297.1</v>
+        <v>6044.72</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>2.38753</v>
+        <v>2.39162</v>
       </c>
       <c r="B79" t="n">
-        <v>7.15362</v>
+        <v>5.92716</v>
       </c>
       <c r="C79" t="n">
-        <v>7153.62</v>
+        <v>5927.16</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>2.41856</v>
+        <v>2.42271</v>
       </c>
       <c r="B80" t="n">
-        <v>7.01062</v>
+        <v>5.816149999999999</v>
       </c>
       <c r="C80" t="n">
-        <v>7010.62</v>
+        <v>5816.15</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>2.45106</v>
+        <v>2.45307</v>
       </c>
       <c r="B81" t="n">
-        <v>6.86738</v>
+        <v>5.711390000000001</v>
       </c>
       <c r="C81" t="n">
-        <v>6867.38</v>
+        <v>5711.39</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>2.48249</v>
+        <v>2.48314</v>
       </c>
       <c r="B82" t="n">
-        <v>6.73058</v>
+        <v>5.61536</v>
       </c>
       <c r="C82" t="n">
-        <v>6730.58</v>
+        <v>5615.36</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>2.51378</v>
+        <v>2.51301</v>
       </c>
       <c r="B83" t="n">
-        <v>6.60055</v>
+        <v>5.52099</v>
       </c>
       <c r="C83" t="n">
-        <v>6600.55</v>
+        <v>5520.99</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>2.54416</v>
+        <v>2.54288</v>
       </c>
       <c r="B84" t="n">
-        <v>6.47748</v>
+        <v>5.43062</v>
       </c>
       <c r="C84" t="n">
-        <v>6477.48</v>
+        <v>5430.62</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>2.57402</v>
+        <v>2.57274</v>
       </c>
       <c r="B85" t="n">
-        <v>6.36066</v>
+        <v>5.34454</v>
       </c>
       <c r="C85" t="n">
-        <v>6360.66</v>
+        <v>5344.54</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>2.60498</v>
+        <v>2.60261</v>
       </c>
       <c r="B86" t="n">
-        <v>6.245810000000001</v>
+        <v>5.26282</v>
       </c>
       <c r="C86" t="n">
-        <v>6245.81</v>
+        <v>5262.82</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>2.63697</v>
+        <v>2.63247</v>
       </c>
       <c r="B87" t="n">
-        <v>6.129600000000001</v>
+        <v>5.18407</v>
       </c>
       <c r="C87" t="n">
-        <v>6129.6</v>
+        <v>5184.07</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>2.66897</v>
+        <v>2.66234</v>
       </c>
       <c r="B88" t="n">
-        <v>6.020020000000001</v>
+        <v>5.11035</v>
       </c>
       <c r="C88" t="n">
-        <v>6020.02</v>
+        <v>5110.35</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>2.69996</v>
+        <v>2.69221</v>
       </c>
       <c r="B89" t="n">
-        <v>5.91711</v>
+        <v>5.0394</v>
       </c>
       <c r="C89" t="n">
-        <v>5917.11</v>
+        <v>5039.4</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>2.73036</v>
+        <v>2.72207</v>
       </c>
       <c r="B90" t="n">
-        <v>5.82144</v>
+        <v>4.972300000000001</v>
       </c>
       <c r="C90" t="n">
-        <v>5821.44</v>
+        <v>4972.3</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>2.75964</v>
+        <v>2.75194</v>
       </c>
       <c r="B91" t="n">
-        <v>5.73534</v>
+        <v>4.90882</v>
       </c>
       <c r="C91" t="n">
-        <v>5735.34</v>
+        <v>4908.82</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>2.78844</v>
+        <v>2.78114</v>
       </c>
       <c r="B92" t="n">
-        <v>5.65421</v>
+        <v>4.84881</v>
       </c>
       <c r="C92" t="n">
-        <v>5654.21</v>
+        <v>4848.81</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>2.82026</v>
+        <v>2.81116</v>
       </c>
       <c r="B93" t="n">
-        <v>5.56838</v>
+        <v>4.79686</v>
       </c>
       <c r="C93" t="n">
-        <v>5568.38</v>
+        <v>4796.86</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>2.85318</v>
+        <v>2.84393</v>
       </c>
       <c r="B94" t="n">
-        <v>5.48525</v>
+        <v>4.77467</v>
       </c>
       <c r="C94" t="n">
-        <v>5485.25</v>
+        <v>4774.67</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>2.88473</v>
+        <v>2.87913</v>
       </c>
       <c r="B95" t="n">
-        <v>5.40692</v>
+        <v>4.76064</v>
       </c>
       <c r="C95" t="n">
-        <v>5406.92</v>
+        <v>4760.64</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>2.91582</v>
+        <v>2.91157</v>
       </c>
       <c r="B96" t="n">
-        <v>5.33374</v>
+        <v>4.747560000000001</v>
       </c>
       <c r="C96" t="n">
-        <v>5333.74</v>
+        <v>4747.56</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>2.9469</v>
+        <v>2.94357</v>
       </c>
       <c r="B97" t="n">
-        <v>5.26506</v>
+        <v>4.72582</v>
       </c>
       <c r="C97" t="n">
-        <v>5265.06</v>
+        <v>4725.82</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>2.9777</v>
+        <v>2.97556</v>
       </c>
       <c r="B98" t="n">
-        <v>5.20251</v>
+        <v>4.71017</v>
       </c>
       <c r="C98" t="n">
-        <v>5202.51</v>
+        <v>4710.17</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>3.00931</v>
+        <v>3.00757</v>
       </c>
       <c r="B99" t="n">
-        <v>5.14898</v>
+        <v>4.69154</v>
       </c>
       <c r="C99" t="n">
-        <v>5148.98</v>
+        <v>4691.54</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>3.03917</v>
+        <v>3.03957</v>
       </c>
       <c r="B100" t="n">
-        <v>5.09462</v>
+        <v>4.67116</v>
       </c>
       <c r="C100" t="n">
-        <v>5094.62</v>
+        <v>4671.16</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>3.06904</v>
+        <v>3.07157</v>
       </c>
       <c r="B101" t="n">
-        <v>5.040319999999999</v>
+        <v>4.64156</v>
       </c>
       <c r="C101" t="n">
-        <v>5040.32</v>
+        <v>4641.56</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>3.0989</v>
+        <v>3.10356</v>
       </c>
       <c r="B102" t="n">
-        <v>4.9866</v>
+        <v>4.61879</v>
       </c>
       <c r="C102" t="n">
-        <v>4986.6</v>
+        <v>4618.79</v>
       </c>
     </row>
   </sheetData>
